--- a/medicine/Enfance/Séverine_de_la_Croix/Séverine_de_la_Croix.xlsx
+++ b/medicine/Enfance/Séverine_de_la_Croix/Séverine_de_la_Croix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9verine_de_la_Croix</t>
+          <t>Séverine_de_la_Croix</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Séverine de la Croix est une écrivain française, autrice d'ouvrages jeunesse et scénariste de bande dessinée née le 20 mars 1985 à Villecresnes (Val-de-Marne). Elle a signé un temps sous le nom de plume de Sève Maël.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9verine_de_la_Croix</t>
+          <t>Séverine_de_la_Croix</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Formation
-Séverine de la Croix travaille un temps dans le cinéma et se déclare titulaire de « trois licences universitaires en histoire, management, psychologie »[Où ?][Quand ?][1]. Elle déclare avoir suivi des « études de psychologie puis de sexologie »[Où ?][Quand ?][2]. Dans une autre source, elle déclare avoir mené de front des études dans « les sciences, l'histoire, le management international et même la psychologie »[Où ?][Quand ?][3].
-Carrière dans l'écriture
-Elle prend le pseudonyme de Sève Maël[4]. En 2004 paraît son premier roman, Couloir de gauche, chez une maison d'édition qui n'existe plus[évasif][3]. Selon une autre source, son premier roman, Couloir de gauche, paraît en 2007 aux éditions Pierregord de Calviac-en-Périgord[5]. En 2012 paraît  Le sexe des femmes révélé aux hommes[6].
-En 2010, elle nourrit un projet de conte sur la préadolescence d'une jeune fille, Lila, mais le projet reste en sommeil jusqu'en 2015[2]. À partir de 2016, elle scénarise la série Lila, dessinée par Pauline Roland[7]. Le premier volume décrit, sous un angle humoristique et didactique, la phase pré-pubertaire de l'héroïne[8]. La série se développe et le cinquième tome paraît en 2020 : L'Amouuur et les baisers[9].
-Avec la même dessinatrice, Séverine de la Croix écrit en parallèle une collection pour les enfants : « qui n'aimait pas »[10] : en 2020, la collection compte plusieurs tomes[11].
-En parallèle, Séverine de la Croix écrit avec Laurent Audouin des ouvrages pour sensibiliser les jeunes lecteurs aux enjeux de la protection de l'environnement : Mission Océan en 2019[12] et Mission forêt en 2020.
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Séverine de la Croix travaille un temps dans le cinéma et se déclare titulaire de « trois licences universitaires en histoire, management, psychologie »[Où ?][Quand ?]. Elle déclare avoir suivi des « études de psychologie puis de sexologie »[Où ?][Quand ?]. Dans une autre source, elle déclare avoir mené de front des études dans « les sciences, l'histoire, le management international et même la psychologie »[Où ?][Quand ?].
 </t>
         </is>
       </c>
@@ -530,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%A9verine_de_la_Croix</t>
+          <t>Séverine_de_la_Croix</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,29 +557,176 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière dans l'écriture</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle prend le pseudonyme de Sève Maël. En 2004 paraît son premier roman, Couloir de gauche, chez une maison d'édition qui n'existe plus[évasif]. Selon une autre source, son premier roman, Couloir de gauche, paraît en 2007 aux éditions Pierregord de Calviac-en-Périgord. En 2012 paraît  Le sexe des femmes révélé aux hommes.
+En 2010, elle nourrit un projet de conte sur la préadolescence d'une jeune fille, Lila, mais le projet reste en sommeil jusqu'en 2015. À partir de 2016, elle scénarise la série Lila, dessinée par Pauline Roland. Le premier volume décrit, sous un angle humoristique et didactique, la phase pré-pubertaire de l'héroïne. La série se développe et le cinquième tome paraît en 2020 : L'Amouuur et les baisers.
+Avec la même dessinatrice, Séverine de la Croix écrit en parallèle une collection pour les enfants : « qui n'aimait pas » : en 2020, la collection compte plusieurs tomes.
+En parallèle, Séverine de la Croix écrit avec Laurent Audouin des ouvrages pour sensibiliser les jeunes lecteurs aux enjeux de la protection de l'environnement : Mission Océan en 2019 et Mission forêt en 2020.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Séverine_de_la_Croix</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9verine_de_la_Croix</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En tant que Sève Maël
-Couloir de gauche, Éd. du Pierregord, Collection Troubadours, 2007  (ISBN 978-2-35291-005-3)
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En tant que Sève Maël</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Couloir de gauche, Éd. du Pierregord, Collection Troubadours, 2007  (ISBN 978-2-35291-005-3)
 Où vas-tu Margot ?, éd. Blanche, 2010  (ISBN 978-2-84628-258-1)
 28000 kilomètres de trottoirs, avec Daniel Boulogne, Romart éditions, 2013  (ISBN 979-10-90485-17-4)
 Le sexe des femmes révélé aux hommes, éd. Blanche, 2012  (ISBN 978-2-84628-295-6)
-Osez 20 histoires de sexe torride, La Musardine, 2014  (ISBN 978-2-84271-955-5)
-En tant que Séverine de la Croix
-Les mensonges ne meurent jamais, Michel Lafon, 2014  (ISBN 978-2-7499-2222-5) ; réed 2018  (ISBN 979-10-224-0274-3)
+Osez 20 histoires de sexe torride, La Musardine, 2014  (ISBN 978-2-84271-955-5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Séverine_de_la_Croix</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9verine_de_la_Croix</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En tant que Séverine de la Croix</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les mensonges ne meurent jamais, Michel Lafon, 2014  (ISBN 978-2-7499-2222-5) ; réed 2018  (ISBN 979-10-224-0274-3)
 Le crime et la lumière, éd. First, Collection Témoins de l'extraordianire, 2017  (ISBN 978-2-7540-8832-9)
 Là où l'on s'aime, il ne fait jamais nuit, éditions du Rocher, 2018  (ISBN 9782268099965)
 X ou Y, Éditions du Rocher, 2019  (ISBN 9782268102627)
-Au milieu de la foule[13], Éditions du Rocher, 2020  (ISBN 9782268103846)
-Bande dessinée
-Sauf mention contraire, Séverine de la Croix est scénariste des albums.
-Lila[14], dessin de Pauline Roland, Delcourt, coll. Jeunesse ; 5 volumes, 2016 - 2020
-Vegvisir tome 1: Le clan de Sif, avec Ugo Chimisso et Sylvia Fabris, éditions Delcourt 2022
-Livres jeunesse
-Sauf mention contraire, Séverine de la Croix est scénariste des albums.
+Au milieu de la foule, Éditions du Rocher, 2020  (ISBN 9782268103846)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Séverine_de_la_Croix</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9verine_de_la_Croix</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sauf mention contraire, Séverine de la Croix est scénariste des albums.
+Lila, dessin de Pauline Roland, Delcourt, coll. Jeunesse ; 5 volumes, 2016 - 2020
+Vegvisir tome 1: Le clan de Sif, avec Ugo Chimisso et Sylvia Fabris, éditions Delcourt 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Séverine_de_la_Croix</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9verine_de_la_Croix</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Livres jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sauf mention contraire, Séverine de la Croix est scénariste des albums.
 Série Qui n'aimait pas, textes avec Anthony Signol, dessin de Pauline Roland, éd. Spash !
 Le Chat qui n'aimait pas les poils, 2016  (ISBN 978-2-36829-158-0)
 La Maîtresse qui n'aimait pas les élèves, 2016  (ISBN 978-2-36829-159-7)
@@ -583,7 +742,7 @@
 Le Pirate qui n'aimait pas les trésors, 2020  (ISBN 978-2-36829-206-8)
 La Princesse qui n'aimait pas les princes charmants, 2020  (ISBN 978-2-36829-203-7)
 La Licorne qui n'aimait pas les paillettes, 2020  (ISBN 978-2-368-29215-0)
-Mission océan : apprends les gestes qui sauvent le monde marin ![15], avec Laurent Audouin (dessin) ; co-publication Sea Sheperd, Glénat jeunesse, 2019  (ISBN 978-2-344-03554-2)
+Mission océan : apprends les gestes qui sauvent le monde marin !, avec Laurent Audouin (dessin) ; co-publication Sea Sheperd, Glénat jeunesse, 2019  (ISBN 978-2-344-03554-2)
 Mission forêt : apprends les gestes qui sauvent les forêts !, avec Laurent Audouin (dessin) ; co-publication WWF, Glénat jeunesse, 2020  (ISBN 978-2-344-04380-6)</t>
         </is>
       </c>
